--- a/Data/gpm_data.xlsx
+++ b/Data/gpm_data.xlsx
@@ -391,12 +391,12 @@
     <t>Freshtear 10ml Ophthalmic Solution</t>
   </si>
   <si>
+    <t>Levomax TS 5ml Ophthalmic Solution</t>
+  </si>
+  <si>
     <t>Levomax 5ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Levomax TS 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
     <t>Lotrel 0.5% Opthalmic Suspension</t>
   </si>
   <si>
@@ -496,10 +496,10 @@
     <t xml:space="preserve">149.93    </t>
   </si>
   <si>
+    <t xml:space="preserve">97.45     </t>
+  </si>
+  <si>
     <t xml:space="preserve">67.47     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.45     </t>
   </si>
   <si>
     <t xml:space="preserve">131.18    </t>
@@ -1185,7 +1185,7 @@
         <v>141</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -1194,28 +1194,28 @@
         <v>965</v>
       </c>
       <c r="I2">
-        <v>435</v>
+        <v>560</v>
       </c>
       <c r="J2">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="N2">
         <v>68</v>
       </c>
       <c r="O2">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="P2">
-        <v>4839</v>
+        <v>4792</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1233,67 +1233,67 @@
         <v>0.186813</v>
       </c>
       <c r="V2">
-        <v>0.505494</v>
+        <v>0.472527</v>
       </c>
       <c r="W2">
         <v>0.868131</v>
       </c>
       <c r="X2">
-        <v>4.373626</v>
+        <v>4.296703</v>
       </c>
       <c r="Y2">
-        <v>0.263736</v>
+        <v>0.274725</v>
       </c>
       <c r="Z2">
         <v>0.725274</v>
       </c>
       <c r="AA2">
-        <v>0.725274</v>
+        <v>0.65934</v>
       </c>
       <c r="AB2">
-        <v>0.197802</v>
+        <v>0.186813</v>
       </c>
       <c r="AC2">
-        <v>0.648351</v>
+        <v>0.65934</v>
       </c>
       <c r="AD2">
-        <v>0.208791</v>
+        <v>0.21978</v>
       </c>
       <c r="AE2">
+        <v>0.32967</v>
+      </c>
+      <c r="AF2">
+        <v>0.9450539999999999</v>
+      </c>
+      <c r="AG2">
         <v>0.340659</v>
       </c>
-      <c r="AF2">
-        <v>0.956043</v>
-      </c>
-      <c r="AG2">
-        <v>0.351648</v>
-      </c>
       <c r="AH2">
-        <v>0.472527</v>
+        <v>0.450549</v>
       </c>
       <c r="AI2">
         <v>0.153846</v>
       </c>
       <c r="AJ2">
-        <v>0.857142</v>
+        <v>0.890109</v>
       </c>
       <c r="AK2">
-        <v>1.10989</v>
+        <v>1.076923</v>
       </c>
       <c r="AL2">
-        <v>1.263736</v>
+        <v>1.252747</v>
       </c>
       <c r="AM2">
         <v>0.681318</v>
       </c>
       <c r="AN2">
-        <v>0.824175</v>
+        <v>0.857142</v>
       </c>
       <c r="AO2">
-        <v>0.340659</v>
+        <v>0.307692</v>
       </c>
       <c r="AP2">
-        <v>0.670329</v>
+        <v>0.65934</v>
       </c>
       <c r="AQ2">
         <v>0.417582</v>
@@ -1305,7 +1305,7 @@
         <v>0.285714</v>
       </c>
       <c r="AT2">
-        <v>1.384615</v>
+        <v>1.340659</v>
       </c>
       <c r="AU2">
         <v>0.296703</v>
@@ -1314,10 +1314,10 @@
         <v>0.461538</v>
       </c>
       <c r="AW2">
-        <v>1.186813</v>
+        <v>1.263736</v>
       </c>
       <c r="AX2">
-        <v>0.21978</v>
+        <v>0.208791</v>
       </c>
       <c r="AY2">
         <v>0.07692300000000001</v>
@@ -1326,43 +1326,43 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>4839</v>
+        <v>4792</v>
       </c>
       <c r="BB2">
         <v>102</v>
       </c>
       <c r="BC2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BE2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BF2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BG2">
         <v>61</v>
       </c>
       <c r="BH2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BI2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BJ2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BK2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BL2">
         <v>236</v>
       </c>
       <c r="BM2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="BN2">
         <v>294</v>
@@ -1371,28 +1371,28 @@
         <v>159</v>
       </c>
       <c r="BP2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BR2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="BS2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="BU2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BV2">
         <v>208</v>
       </c>
       <c r="BW2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="BX2">
         <v>139</v>
@@ -1404,37 +1404,37 @@
         <v>267</v>
       </c>
       <c r="CA2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB2">
         <v>196</v>
       </c>
       <c r="CC2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CD2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="CE2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="CF2">
         <v>173</v>
       </c>
       <c r="CG2">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="CH2">
-        <v>30015</v>
+        <v>32571</v>
       </c>
       <c r="CI2" t="s">
         <v>149</v>
       </c>
       <c r="CJ2">
-        <v>1814.12</v>
+        <v>329.84</v>
       </c>
       <c r="CK2">
-        <v>1814.12</v>
+        <v>329.84</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>141</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1466,25 +1466,25 @@
         <v>293</v>
       </c>
       <c r="I3">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0.010989</v>
       </c>
       <c r="V3">
-        <v>0.07692300000000001</v>
+        <v>0.087912</v>
       </c>
       <c r="W3">
         <v>0.032967</v>
@@ -1538,7 +1538,7 @@
         <v>0.06593400000000001</v>
       </c>
       <c r="AG3">
-        <v>0.120879</v>
+        <v>0.098901</v>
       </c>
       <c r="AH3">
         <v>0.032967</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.791208</v>
+        <v>2.76923</v>
       </c>
       <c r="AL3">
         <v>0.06593400000000001</v>
@@ -1568,7 +1568,7 @@
         <v>0.021978</v>
       </c>
       <c r="AQ3">
-        <v>0.021978</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>2720</v>
+        <v>2713</v>
       </c>
       <c r="BB3">
         <v>31</v>
@@ -1625,7 +1625,7 @@
         <v>10</v>
       </c>
       <c r="BJ3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BK3">
         <v>28</v>
@@ -1649,7 +1649,7 @@
         <v>20</v>
       </c>
       <c r="BR3">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="BS3">
         <v>120</v>
@@ -1685,7 +1685,7 @@
         <v>94</v>
       </c>
       <c r="CD3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="CE3">
         <v>27</v>
@@ -1694,19 +1694,19 @@
         <v>10</v>
       </c>
       <c r="CG3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CH3">
-        <v>20390</v>
+        <v>22481</v>
       </c>
       <c r="CI3" t="s">
         <v>150</v>
       </c>
       <c r="CJ3">
-        <v>1568.49</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1568.49</v>
+        <v>0</v>
       </c>
       <c r="CL3">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>144</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2826,25 +2826,25 @@
         <v>374</v>
       </c>
       <c r="I8">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="J8">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M8">
+        <v>233</v>
+      </c>
+      <c r="N8">
+        <v>62</v>
+      </c>
+      <c r="O8">
         <v>246</v>
-      </c>
-      <c r="N8">
-        <v>65</v>
-      </c>
-      <c r="O8">
-        <v>266</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0.087912</v>
       </c>
       <c r="V8">
-        <v>0.043956</v>
+        <v>0.054945</v>
       </c>
       <c r="W8">
         <v>0.098901</v>
@@ -2880,7 +2880,7 @@
         <v>0.010989</v>
       </c>
       <c r="AA8">
-        <v>0.120879</v>
+        <v>0.10989</v>
       </c>
       <c r="AB8">
         <v>0.010989</v>
@@ -2898,7 +2898,7 @@
         <v>0.07692300000000001</v>
       </c>
       <c r="AG8">
-        <v>0.65934</v>
+        <v>0.571428</v>
       </c>
       <c r="AH8">
         <v>0.043956</v>
@@ -2907,19 +2907,19 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.043956</v>
+        <v>0.054945</v>
       </c>
       <c r="AK8">
-        <v>5</v>
+        <v>4.670329</v>
       </c>
       <c r="AL8">
-        <v>0.637362</v>
+        <v>0.604395</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.747252</v>
+        <v>0.736263</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.010989</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>1119</v>
+        <v>1093</v>
       </c>
       <c r="BB8">
         <v>32</v>
       </c>
       <c r="BC8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD8">
         <v>19</v>
@@ -2979,13 +2979,13 @@
         <v>31</v>
       </c>
       <c r="BH8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI8">
         <v>4</v>
       </c>
       <c r="BJ8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK8">
         <v>4</v>
@@ -3006,19 +3006,19 @@
         <v>10</v>
       </c>
       <c r="BQ8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BR8">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="BS8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT8">
         <v>20</v>
       </c>
       <c r="BU8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BV8">
         <v>30</v>
@@ -3027,7 +3027,7 @@
         <v>60</v>
       </c>
       <c r="BX8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BY8">
         <v>10</v>
@@ -3045,7 +3045,7 @@
         <v>100</v>
       </c>
       <c r="CD8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CE8">
         <v>20</v>
@@ -3054,19 +3054,19 @@
         <v>5</v>
       </c>
       <c r="CG8">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="CH8">
-        <v>54941</v>
+        <v>65593</v>
       </c>
       <c r="CI8" t="s">
         <v>155</v>
       </c>
       <c r="CJ8">
-        <v>4485.04</v>
+        <v>560.63</v>
       </c>
       <c r="CK8">
-        <v>4485.04</v>
+        <v>560.63</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -3089,37 +3089,37 @@
         <v>141</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>977</v>
       </c>
       <c r="I9">
-        <v>441</v>
+        <v>567</v>
       </c>
       <c r="J9">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="K9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="N9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O9">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="P9">
-        <v>856</v>
+        <v>808</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.362637</v>
+        <v>0.32967</v>
       </c>
       <c r="V9">
-        <v>0.318681</v>
+        <v>0.296703</v>
       </c>
       <c r="W9">
-        <v>0.802197</v>
+        <v>0.725274</v>
       </c>
       <c r="X9">
-        <v>0.021978</v>
+        <v>0.032967</v>
       </c>
       <c r="Y9">
         <v>0.7582410000000001</v>
@@ -3152,25 +3152,25 @@
         <v>0.087912</v>
       </c>
       <c r="AA9">
-        <v>0.032967</v>
+        <v>0.043956</v>
       </c>
       <c r="AB9">
         <v>0.10989</v>
       </c>
       <c r="AC9">
-        <v>0.461538</v>
+        <v>0.450549</v>
       </c>
       <c r="AD9">
-        <v>0.725274</v>
+        <v>0.703296</v>
       </c>
       <c r="AE9">
         <v>0.054945</v>
       </c>
       <c r="AF9">
-        <v>1.648351</v>
+        <v>1.54945</v>
       </c>
       <c r="AG9">
-        <v>1.560439</v>
+        <v>1.494505</v>
       </c>
       <c r="AH9">
         <v>0.461538</v>
@@ -3179,10 +3179,10 @@
         <v>0.120879</v>
       </c>
       <c r="AJ9">
-        <v>1.164835</v>
+        <v>1.252747</v>
       </c>
       <c r="AK9">
-        <v>1.197802</v>
+        <v>1.208791</v>
       </c>
       <c r="AL9">
         <v>0.06593400000000001</v>
@@ -3194,22 +3194,22 @@
         <v>0.648351</v>
       </c>
       <c r="AO9">
-        <v>4.340659</v>
+        <v>3.98901</v>
       </c>
       <c r="AP9">
-        <v>0.318681</v>
+        <v>0.21978</v>
       </c>
       <c r="AQ9">
         <v>0.164835</v>
       </c>
       <c r="AR9">
-        <v>0.153846</v>
+        <v>0.175824</v>
       </c>
       <c r="AS9">
         <v>0.307692</v>
       </c>
       <c r="AT9">
-        <v>0.835164</v>
+        <v>0.824175</v>
       </c>
       <c r="AU9">
         <v>0.131868</v>
@@ -3218,19 +3218,19 @@
         <v>2.593406</v>
       </c>
       <c r="AW9">
-        <v>0.604395</v>
+        <v>0.582417</v>
       </c>
       <c r="AX9">
         <v>0.307692</v>
       </c>
       <c r="AY9">
-        <v>0.538461</v>
+        <v>0.582417</v>
       </c>
       <c r="AZ9">
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>856</v>
+        <v>808</v>
       </c>
       <c r="BB9">
         <v>38</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="BD9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BE9">
         <v>13</v>
@@ -3251,7 +3251,7 @@
         <v>27</v>
       </c>
       <c r="BH9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BI9">
         <v>33</v>
@@ -3266,10 +3266,10 @@
         <v>19</v>
       </c>
       <c r="BM9">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9">
         <v>0</v>
@@ -3281,34 +3281,34 @@
         <v>21</v>
       </c>
       <c r="BR9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BS9">
         <v>39</v>
       </c>
       <c r="BT9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BU9">
         <v>47</v>
       </c>
       <c r="BV9">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="BW9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BX9">
         <v>34</v>
       </c>
       <c r="BY9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BZ9">
         <v>57</v>
       </c>
       <c r="CA9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CB9">
         <v>42</v>
@@ -3323,22 +3323,22 @@
         <v>41</v>
       </c>
       <c r="CF9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="CG9">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="CH9">
-        <v>11648</v>
+        <v>13222</v>
       </c>
       <c r="CI9" t="s">
         <v>156</v>
       </c>
       <c r="CJ9">
-        <v>1311.75</v>
+        <v>524.7</v>
       </c>
       <c r="CK9">
-        <v>1311.75</v>
+        <v>524.7</v>
       </c>
       <c r="CL9">
         <v>0</v>
@@ -3905,37 +3905,37 @@
         <v>145</v>
       </c>
       <c r="F12">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G12">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H12">
         <v>5520</v>
       </c>
       <c r="I12">
-        <v>2492</v>
+        <v>3205</v>
       </c>
       <c r="J12">
-        <v>1879</v>
+        <v>2304</v>
       </c>
       <c r="K12">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>5168</v>
+        <v>5093</v>
       </c>
       <c r="N12">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12">
-        <v>3641</v>
+        <v>3216</v>
       </c>
       <c r="P12">
-        <v>7078</v>
+        <v>6602</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3950,22 +3950,22 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1.846153</v>
+        <v>1.868131</v>
       </c>
       <c r="V12">
-        <v>11.791208</v>
+        <v>11.626373</v>
       </c>
       <c r="W12">
-        <v>10.450549</v>
+        <v>10.582417</v>
       </c>
       <c r="X12">
         <v>5.318681</v>
       </c>
       <c r="Y12">
-        <v>2.725274</v>
+        <v>2.626373</v>
       </c>
       <c r="Z12">
-        <v>5.472527</v>
+        <v>5.582417</v>
       </c>
       <c r="AA12">
         <v>1.175824</v>
@@ -3974,187 +3974,187 @@
         <v>2.824175</v>
       </c>
       <c r="AC12">
-        <v>1.76923</v>
+        <v>1.835164</v>
       </c>
       <c r="AD12">
-        <v>2.230769</v>
+        <v>2.208791</v>
       </c>
       <c r="AE12">
-        <v>2.230769</v>
+        <v>2.263736</v>
       </c>
       <c r="AF12">
-        <v>5.10989</v>
+        <v>5.098901</v>
       </c>
       <c r="AG12">
-        <v>6</v>
+        <v>5.890109</v>
       </c>
       <c r="AH12">
-        <v>1.197802</v>
+        <v>1.21978</v>
       </c>
       <c r="AI12">
         <v>0.934065</v>
       </c>
       <c r="AJ12">
-        <v>3.791208</v>
+        <v>3.692307</v>
       </c>
       <c r="AK12">
-        <v>37.934065</v>
+        <v>34.593406</v>
       </c>
       <c r="AL12">
-        <v>13.461538</v>
+        <v>13.725274</v>
       </c>
       <c r="AM12">
-        <v>1.868131</v>
+        <v>1.890109</v>
       </c>
       <c r="AN12">
-        <v>11.76923</v>
+        <v>12.241758</v>
       </c>
       <c r="AO12">
-        <v>3.318681</v>
+        <v>3.450549</v>
       </c>
       <c r="AP12">
-        <v>4.978021</v>
+        <v>4.824175</v>
       </c>
       <c r="AQ12">
-        <v>2.714285</v>
+        <v>2.65934</v>
       </c>
       <c r="AR12">
-        <v>1.032967</v>
+        <v>0.9890099999999999</v>
       </c>
       <c r="AS12">
-        <v>2.021978</v>
+        <v>2.131868</v>
       </c>
       <c r="AT12">
-        <v>3.978021</v>
+        <v>3.890109</v>
       </c>
       <c r="AU12">
         <v>0.516483</v>
       </c>
       <c r="AV12">
-        <v>3.516483</v>
+        <v>3.824175</v>
       </c>
       <c r="AW12">
-        <v>3.725274</v>
+        <v>3.285714</v>
       </c>
       <c r="AX12">
-        <v>6.890109</v>
+        <v>7.098901</v>
       </c>
       <c r="AY12">
-        <v>4.120879</v>
+        <v>4.428571</v>
       </c>
       <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>7078</v>
+        <v>6602</v>
       </c>
       <c r="BB12">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="BC12">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="BD12">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="BE12">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="BF12">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="BG12">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="BH12">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI12">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="BJ12">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="BK12">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="BL12">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="BM12">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="BN12">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="BO12">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BP12">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BQ12">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="BR12">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="BS12">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="BT12">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BU12">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="BV12">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="BW12">
+        <v>239</v>
+      </c>
+      <c r="BX12">
+        <v>270</v>
+      </c>
+      <c r="BY12">
+        <v>159</v>
+      </c>
+      <c r="BZ12">
+        <v>167</v>
+      </c>
+      <c r="CA12">
         <v>248</v>
       </c>
-      <c r="BX12">
-        <v>272</v>
-      </c>
-      <c r="BY12">
-        <v>160</v>
-      </c>
-      <c r="BZ12">
-        <v>181</v>
-      </c>
-      <c r="CA12">
-        <v>264</v>
-      </c>
       <c r="CB12">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="CC12">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="CD12">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="CE12">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="CF12">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="CG12">
-        <v>1977</v>
+        <v>2341</v>
       </c>
       <c r="CH12">
-        <v>296411</v>
+        <v>350986</v>
       </c>
       <c r="CI12" t="s">
         <v>159</v>
       </c>
       <c r="CJ12">
-        <v>17241.95</v>
+        <v>9295.66</v>
       </c>
       <c r="CK12">
-        <v>17241.95</v>
+        <v>9295.66</v>
       </c>
       <c r="CL12">
         <v>0</v>
@@ -4174,259 +4174,259 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>980</v>
+      </c>
+      <c r="I13">
+        <v>569</v>
+      </c>
+      <c r="J13">
+        <v>340</v>
+      </c>
+      <c r="K13">
+        <v>59</v>
+      </c>
+      <c r="L13">
         <v>34</v>
       </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13">
-        <v>986</v>
-      </c>
-      <c r="I13">
-        <v>445</v>
-      </c>
-      <c r="J13">
-        <v>178</v>
-      </c>
-      <c r="K13">
+      <c r="M13">
+        <v>860</v>
+      </c>
+      <c r="N13">
+        <v>87</v>
+      </c>
+      <c r="O13">
+        <v>640</v>
+      </c>
+      <c r="P13">
+        <v>2338</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.153846</v>
+      </c>
+      <c r="V13">
+        <v>0.615384</v>
+      </c>
+      <c r="W13">
+        <v>1.274725</v>
+      </c>
+      <c r="X13">
+        <v>0.417582</v>
+      </c>
+      <c r="Y13">
+        <v>0.230769</v>
+      </c>
+      <c r="Z13">
+        <v>0.21978</v>
+      </c>
+      <c r="AA13">
+        <v>0.65934</v>
+      </c>
+      <c r="AB13">
+        <v>0.131868</v>
+      </c>
+      <c r="AC13">
+        <v>0.890109</v>
+      </c>
+      <c r="AD13">
+        <v>0.098901</v>
+      </c>
+      <c r="AE13">
+        <v>0.098901</v>
+      </c>
+      <c r="AF13">
+        <v>0.637362</v>
+      </c>
+      <c r="AG13">
+        <v>0.890109</v>
+      </c>
+      <c r="AH13">
+        <v>0.087912</v>
+      </c>
+      <c r="AI13">
+        <v>0.736263</v>
+      </c>
+      <c r="AJ13">
+        <v>2.681318</v>
+      </c>
+      <c r="AK13">
+        <v>0.263736</v>
+      </c>
+      <c r="AL13">
+        <v>0.021978</v>
+      </c>
+      <c r="AM13">
+        <v>0.87912</v>
+      </c>
+      <c r="AN13">
+        <v>0.208791</v>
+      </c>
+      <c r="AO13">
+        <v>1.263736</v>
+      </c>
+      <c r="AP13">
+        <v>0.384615</v>
+      </c>
+      <c r="AQ13">
+        <v>0.153846</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3.373626</v>
+      </c>
+      <c r="AT13">
+        <v>0.87912</v>
+      </c>
+      <c r="AU13">
+        <v>0.274725</v>
+      </c>
+      <c r="AV13">
+        <v>0.5274720000000001</v>
+      </c>
+      <c r="AW13">
+        <v>0.505494</v>
+      </c>
+      <c r="AX13">
+        <v>0.131868</v>
+      </c>
+      <c r="AY13">
+        <v>9.076923000000001</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>2338</v>
+      </c>
+      <c r="BB13">
+        <v>27</v>
+      </c>
+      <c r="BC13">
+        <v>102</v>
+      </c>
+      <c r="BD13">
+        <v>60</v>
+      </c>
+      <c r="BE13">
+        <v>129</v>
+      </c>
+      <c r="BF13">
+        <v>22</v>
+      </c>
+      <c r="BG13">
+        <v>57</v>
+      </c>
+      <c r="BH13">
+        <v>69</v>
+      </c>
+      <c r="BI13">
+        <v>37</v>
+      </c>
+      <c r="BJ13">
+        <v>67</v>
+      </c>
+      <c r="BK13">
         <v>39</v>
       </c>
-      <c r="L13">
-        <v>18</v>
-      </c>
-      <c r="M13">
-        <v>473</v>
-      </c>
-      <c r="N13">
-        <v>48</v>
-      </c>
-      <c r="O13">
-        <v>808</v>
-      </c>
-      <c r="P13">
-        <v>3034</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0.263736</v>
-      </c>
-      <c r="V13">
-        <v>0.747252</v>
-      </c>
-      <c r="W13">
-        <v>1.384615</v>
-      </c>
-      <c r="X13">
-        <v>0.087912</v>
-      </c>
-      <c r="Y13">
-        <v>0.362637</v>
-      </c>
-      <c r="Z13">
-        <v>0.340659</v>
-      </c>
-      <c r="AA13">
-        <v>0.87912</v>
-      </c>
-      <c r="AB13">
-        <v>0.10989</v>
-      </c>
-      <c r="AC13">
-        <v>1.186813</v>
-      </c>
-      <c r="AD13">
-        <v>0.043956</v>
-      </c>
-      <c r="AE13">
-        <v>0.10989</v>
-      </c>
-      <c r="AF13">
-        <v>1.120879</v>
-      </c>
-      <c r="AG13">
-        <v>1.153846</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0.637362</v>
-      </c>
-      <c r="AJ13">
-        <v>0.615384</v>
-      </c>
-      <c r="AK13">
-        <v>0.384615</v>
-      </c>
-      <c r="AL13">
-        <v>0.054945</v>
-      </c>
-      <c r="AM13">
-        <v>1.043956</v>
-      </c>
-      <c r="AN13">
-        <v>0.340659</v>
-      </c>
-      <c r="AO13">
-        <v>0.637362</v>
-      </c>
-      <c r="AP13">
-        <v>1.351648</v>
-      </c>
-      <c r="AQ13">
-        <v>0.230769</v>
-      </c>
-      <c r="AR13">
-        <v>0.043956</v>
-      </c>
-      <c r="AS13">
-        <v>0.703296</v>
-      </c>
-      <c r="AT13">
-        <v>0.340659</v>
-      </c>
-      <c r="AU13">
-        <v>0.07692300000000001</v>
-      </c>
-      <c r="AV13">
-        <v>0.087912</v>
-      </c>
-      <c r="AW13">
-        <v>0.197802</v>
-      </c>
-      <c r="AX13">
-        <v>0.450549</v>
-      </c>
-      <c r="AY13">
-        <v>0.296703</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>3034</v>
-      </c>
-      <c r="BB13">
-        <v>33</v>
-      </c>
-      <c r="BC13">
-        <v>28</v>
-      </c>
-      <c r="BD13">
-        <v>118</v>
-      </c>
-      <c r="BE13">
-        <v>69</v>
-      </c>
-      <c r="BF13">
-        <v>97</v>
-      </c>
-      <c r="BG13">
-        <v>73</v>
-      </c>
-      <c r="BH13">
-        <v>68</v>
-      </c>
-      <c r="BI13">
-        <v>123</v>
-      </c>
-      <c r="BJ13">
-        <v>99</v>
-      </c>
-      <c r="BK13">
-        <v>93</v>
-      </c>
       <c r="BL13">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="BM13">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="BN13">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="BO13">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="BP13">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="BQ13">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BR13">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="BS13">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="BT13">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="BU13">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="BV13">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="BW13">
+        <v>134</v>
+      </c>
+      <c r="BX13">
+        <v>53</v>
+      </c>
+      <c r="BY13">
+        <v>25</v>
+      </c>
+      <c r="BZ13">
+        <v>137</v>
+      </c>
+      <c r="CA13">
+        <v>78</v>
+      </c>
+      <c r="CB13">
+        <v>27</v>
+      </c>
+      <c r="CC13">
         <v>64</v>
       </c>
-      <c r="BX13">
-        <v>79</v>
-      </c>
-      <c r="BY13">
-        <v>125</v>
-      </c>
-      <c r="BZ13">
-        <v>84</v>
-      </c>
-      <c r="CA13">
-        <v>57</v>
-      </c>
-      <c r="CB13">
-        <v>37</v>
-      </c>
-      <c r="CC13">
-        <v>57</v>
-      </c>
       <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
         <v>96</v>
       </c>
-      <c r="CE13">
-        <v>59</v>
-      </c>
       <c r="CF13">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="CG13">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="CH13">
-        <v>10390</v>
+        <v>32743</v>
       </c>
       <c r="CI13" t="s">
         <v>160</v>
       </c>
       <c r="CJ13">
-        <v>2293.98</v>
+        <v>584.7</v>
       </c>
       <c r="CK13">
-        <v>2293.98</v>
+        <v>584.7</v>
       </c>
       <c r="CL13">
         <v>0</v>
@@ -4446,259 +4446,259 @@
         <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>986</v>
+      </c>
+      <c r="I14">
+        <v>572</v>
+      </c>
+      <c r="J14">
+        <v>217</v>
+      </c>
+      <c r="K14">
+        <v>37</v>
+      </c>
+      <c r="L14">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>473</v>
+      </c>
+      <c r="N14">
+        <v>48</v>
+      </c>
+      <c r="O14">
+        <v>769</v>
+      </c>
+      <c r="P14">
+        <v>2957</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0.296703</v>
+      </c>
+      <c r="V14">
+        <v>0.681318</v>
+      </c>
+      <c r="W14">
+        <v>1.406593</v>
+      </c>
+      <c r="X14">
+        <v>0.087912</v>
+      </c>
+      <c r="Y14">
+        <v>0.373626</v>
+      </c>
+      <c r="Z14">
+        <v>0.362637</v>
+      </c>
+      <c r="AA14">
+        <v>0.87912</v>
+      </c>
+      <c r="AB14">
+        <v>0.10989</v>
+      </c>
+      <c r="AC14">
+        <v>1.175824</v>
+      </c>
+      <c r="AD14">
+        <v>0.043956</v>
+      </c>
+      <c r="AE14">
+        <v>0.142857</v>
+      </c>
+      <c r="AF14">
+        <v>0.956043</v>
+      </c>
+      <c r="AG14">
+        <v>1.131868</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0.637362</v>
+      </c>
+      <c r="AJ14">
+        <v>0.615384</v>
+      </c>
+      <c r="AK14">
+        <v>0.384615</v>
+      </c>
+      <c r="AL14">
+        <v>0.054945</v>
+      </c>
+      <c r="AM14">
+        <v>1.043956</v>
+      </c>
+      <c r="AN14">
+        <v>0.340659</v>
+      </c>
+      <c r="AO14">
+        <v>0.747252</v>
+      </c>
+      <c r="AP14">
+        <v>1.307692</v>
+      </c>
+      <c r="AQ14">
+        <v>0.252747</v>
+      </c>
+      <c r="AR14">
+        <v>0.043956</v>
+      </c>
+      <c r="AS14">
+        <v>0.703296</v>
+      </c>
+      <c r="AT14">
+        <v>0.340659</v>
+      </c>
+      <c r="AU14">
+        <v>0.07692300000000001</v>
+      </c>
+      <c r="AV14">
+        <v>0.098901</v>
+      </c>
+      <c r="AW14">
+        <v>0.197802</v>
+      </c>
+      <c r="AX14">
+        <v>0.43956</v>
+      </c>
+      <c r="AY14">
+        <v>0.351648</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>2957</v>
+      </c>
+      <c r="BB14">
         <v>28</v>
       </c>
-      <c r="H14">
-        <v>980</v>
-      </c>
-      <c r="I14">
-        <v>442</v>
-      </c>
-      <c r="J14">
-        <v>307</v>
-      </c>
-      <c r="K14">
+      <c r="BC14">
+        <v>25</v>
+      </c>
+      <c r="BD14">
+        <v>106</v>
+      </c>
+      <c r="BE14">
         <v>69</v>
       </c>
-      <c r="L14">
-        <v>31</v>
-      </c>
-      <c r="M14">
-        <v>874</v>
-      </c>
-      <c r="N14">
-        <v>89</v>
-      </c>
-      <c r="O14">
-        <v>673</v>
-      </c>
-      <c r="P14">
-        <v>2378</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0.153846</v>
-      </c>
-      <c r="V14">
-        <v>0.637362</v>
-      </c>
-      <c r="W14">
-        <v>1.186813</v>
-      </c>
-      <c r="X14">
-        <v>0.417582</v>
-      </c>
-      <c r="Y14">
-        <v>0.230769</v>
-      </c>
-      <c r="Z14">
-        <v>0.241758</v>
-      </c>
-      <c r="AA14">
-        <v>0.65934</v>
-      </c>
-      <c r="AB14">
-        <v>0.131868</v>
-      </c>
-      <c r="AC14">
-        <v>0.868131</v>
-      </c>
-      <c r="AD14">
-        <v>0.098901</v>
-      </c>
-      <c r="AE14">
-        <v>0.098901</v>
-      </c>
-      <c r="AF14">
-        <v>0.681318</v>
-      </c>
-      <c r="AG14">
-        <v>0.934065</v>
-      </c>
-      <c r="AH14">
-        <v>0.087912</v>
-      </c>
-      <c r="AI14">
-        <v>0.76923</v>
-      </c>
-      <c r="AJ14">
-        <v>2.758241</v>
-      </c>
-      <c r="AK14">
-        <v>0.307692</v>
-      </c>
-      <c r="AL14">
-        <v>0.021978</v>
-      </c>
-      <c r="AM14">
-        <v>0.87912</v>
-      </c>
-      <c r="AN14">
-        <v>0.208791</v>
-      </c>
-      <c r="AO14">
-        <v>1.274725</v>
-      </c>
-      <c r="AP14">
-        <v>0.406593</v>
-      </c>
-      <c r="AQ14">
-        <v>0.164835</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>3.351648</v>
-      </c>
-      <c r="AT14">
-        <v>0.868131</v>
-      </c>
-      <c r="AU14">
-        <v>0.296703</v>
-      </c>
-      <c r="AV14">
-        <v>0.538461</v>
-      </c>
-      <c r="AW14">
-        <v>0.505494</v>
-      </c>
-      <c r="AX14">
-        <v>0.142857</v>
-      </c>
-      <c r="AY14">
-        <v>9.285714</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>2378</v>
-      </c>
-      <c r="BB14">
-        <v>27</v>
-      </c>
-      <c r="BC14">
-        <v>104</v>
-      </c>
-      <c r="BD14">
-        <v>71</v>
-      </c>
-      <c r="BE14">
-        <v>129</v>
-      </c>
       <c r="BF14">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="BG14">
+        <v>73</v>
+      </c>
+      <c r="BH14">
+        <v>64</v>
+      </c>
+      <c r="BI14">
+        <v>123</v>
+      </c>
+      <c r="BJ14">
+        <v>96</v>
+      </c>
+      <c r="BK14">
+        <v>93</v>
+      </c>
+      <c r="BL14">
+        <v>145</v>
+      </c>
+      <c r="BM14">
+        <v>141</v>
+      </c>
+      <c r="BN14">
+        <v>318</v>
+      </c>
+      <c r="BO14">
+        <v>119</v>
+      </c>
+      <c r="BP14">
+        <v>35</v>
+      </c>
+      <c r="BQ14">
+        <v>69</v>
+      </c>
+      <c r="BR14">
+        <v>84</v>
+      </c>
+      <c r="BS14">
+        <v>144</v>
+      </c>
+      <c r="BT14">
+        <v>124</v>
+      </c>
+      <c r="BU14">
+        <v>130</v>
+      </c>
+      <c r="BV14">
+        <v>58</v>
+      </c>
+      <c r="BW14">
+        <v>61</v>
+      </c>
+      <c r="BX14">
+        <v>77</v>
+      </c>
+      <c r="BY14">
+        <v>125</v>
+      </c>
+      <c r="BZ14">
+        <v>83</v>
+      </c>
+      <c r="CA14">
+        <v>56</v>
+      </c>
+      <c r="CB14">
+        <v>37</v>
+      </c>
+      <c r="CC14">
+        <v>56</v>
+      </c>
+      <c r="CD14">
+        <v>95</v>
+      </c>
+      <c r="CE14">
         <v>57</v>
       </c>
-      <c r="BH14">
-        <v>71</v>
-      </c>
-      <c r="BI14">
-        <v>37</v>
-      </c>
-      <c r="BJ14">
-        <v>70</v>
-      </c>
-      <c r="BK14">
-        <v>39</v>
-      </c>
-      <c r="BL14">
-        <v>93</v>
-      </c>
-      <c r="BM14">
-        <v>40</v>
-      </c>
-      <c r="BN14">
-        <v>55</v>
-      </c>
-      <c r="BO14">
-        <v>32</v>
-      </c>
-      <c r="BP14">
-        <v>105</v>
-      </c>
-      <c r="BQ14">
-        <v>79</v>
-      </c>
-      <c r="BR14">
-        <v>132</v>
-      </c>
-      <c r="BS14">
-        <v>103</v>
-      </c>
-      <c r="BT14">
-        <v>64</v>
-      </c>
-      <c r="BU14">
-        <v>212</v>
-      </c>
-      <c r="BV14">
-        <v>89</v>
-      </c>
-      <c r="BW14">
-        <v>136</v>
-      </c>
-      <c r="BX14">
-        <v>53</v>
-      </c>
-      <c r="BY14">
-        <v>25</v>
-      </c>
-      <c r="BZ14">
-        <v>139</v>
-      </c>
-      <c r="CA14">
-        <v>79</v>
-      </c>
-      <c r="CB14">
-        <v>27</v>
-      </c>
-      <c r="CC14">
-        <v>64</v>
-      </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>96</v>
-      </c>
       <c r="CF14">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="CG14">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="CH14">
-        <v>29235</v>
+        <v>14033</v>
       </c>
       <c r="CI14" t="s">
         <v>161</v>
       </c>
       <c r="CJ14">
-        <v>1266.85</v>
+        <v>-404.82</v>
       </c>
       <c r="CK14">
-        <v>1266.85</v>
+        <v>-404.82</v>
       </c>
       <c r="CL14">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>146</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -5002,25 +5002,25 @@
         <v>94</v>
       </c>
       <c r="I16">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J16">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="N16">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.06593400000000001</v>
+        <v>0.07692300000000001</v>
       </c>
       <c r="AD16">
         <v>0.010989</v>
@@ -5074,7 +5074,7 @@
         <v>0.021978</v>
       </c>
       <c r="AG16">
-        <v>0.483516</v>
+        <v>0.461538</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -5083,19 +5083,19 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.021978</v>
+        <v>0.032967</v>
       </c>
       <c r="AK16">
-        <v>5.318681</v>
+        <v>5.263736</v>
       </c>
       <c r="AL16">
-        <v>0.406593</v>
+        <v>0.373626</v>
       </c>
       <c r="AM16">
         <v>0.010989</v>
       </c>
       <c r="AN16">
-        <v>1.10989</v>
+        <v>0.87912</v>
       </c>
       <c r="AO16">
         <v>0.021978</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>4</v>
       </c>
       <c r="BJ16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK16">
         <v>4</v>
@@ -5182,7 +5182,7 @@
         <v>5</v>
       </c>
       <c r="BQ16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR16">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="BU16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BV16">
         <v>10</v>
@@ -5230,19 +5230,19 @@
         <v>0</v>
       </c>
       <c r="CG16">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="CH16">
-        <v>112004</v>
+        <v>128445</v>
       </c>
       <c r="CI16" t="s">
         <v>163</v>
       </c>
       <c r="CJ16">
-        <v>0</v>
+        <v>1027.56</v>
       </c>
       <c r="CK16">
-        <v>0</v>
+        <v>1027.56</v>
       </c>
       <c r="CL16">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>0.208791</v>
       </c>
       <c r="V19">
-        <v>0.21978</v>
+        <v>0.208791</v>
       </c>
       <c r="W19">
         <v>0.318681</v>
@@ -5866,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.967032</v>
+        <v>0.912087</v>
       </c>
       <c r="Z19">
-        <v>0.142857</v>
+        <v>0.120879</v>
       </c>
       <c r="AA19">
         <v>0.032967</v>
@@ -5878,7 +5878,7 @@
         <v>0.07692300000000001</v>
       </c>
       <c r="AC19">
-        <v>0.087912</v>
+        <v>0.06593400000000001</v>
       </c>
       <c r="AD19">
         <v>0.098901</v>
@@ -5887,46 +5887,46 @@
         <v>0.010989</v>
       </c>
       <c r="AF19">
-        <v>0.450549</v>
+        <v>0.43956</v>
       </c>
       <c r="AG19">
-        <v>1.890109</v>
+        <v>1.461538</v>
       </c>
       <c r="AH19">
-        <v>0.10989</v>
+        <v>0.098901</v>
       </c>
       <c r="AI19">
         <v>0.032967</v>
       </c>
       <c r="AJ19">
-        <v>0.197802</v>
+        <v>0.175824</v>
       </c>
       <c r="AK19">
-        <v>4.714285</v>
+        <v>4.703296</v>
       </c>
       <c r="AL19">
-        <v>1.241758</v>
+        <v>1.197802</v>
       </c>
       <c r="AM19">
         <v>0.21978</v>
       </c>
       <c r="AN19">
-        <v>3.263736</v>
+        <v>2.813186</v>
       </c>
       <c r="AO19">
-        <v>0.010989</v>
+        <v>0.021978</v>
       </c>
       <c r="AP19">
-        <v>0.230769</v>
+        <v>0.175824</v>
       </c>
       <c r="AQ19">
-        <v>0.153846</v>
+        <v>0.06593400000000001</v>
       </c>
       <c r="AR19">
-        <v>0.142857</v>
+        <v>0.131868</v>
       </c>
       <c r="AS19">
-        <v>0.417582</v>
+        <v>0.351648</v>
       </c>
       <c r="AT19">
         <v>0.263736</v>
@@ -5935,7 +5935,7 @@
         <v>0.010989</v>
       </c>
       <c r="AV19">
-        <v>0.032967</v>
+        <v>0.021978</v>
       </c>
       <c r="AW19">
         <v>0.285714</v>
@@ -5944,7 +5944,7 @@
         <v>0.087912</v>
       </c>
       <c r="AY19">
-        <v>0.461538</v>
+        <v>0.450549</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -6081,34 +6081,34 @@
         <v>147</v>
       </c>
       <c r="F20">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="G20">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H20">
         <v>11300</v>
       </c>
       <c r="I20">
-        <v>5103</v>
+        <v>6561</v>
       </c>
       <c r="J20">
-        <v>2546</v>
+        <v>3104</v>
       </c>
       <c r="K20">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>7006</v>
+        <v>6913</v>
       </c>
       <c r="N20">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20">
-        <v>8754</v>
+        <v>8196</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -6126,211 +6126,211 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>5.43956</v>
+        <v>4.923076</v>
       </c>
       <c r="V20">
-        <v>4.373626</v>
+        <v>4.626373</v>
       </c>
       <c r="W20">
-        <v>4.032967</v>
+        <v>4</v>
       </c>
       <c r="X20">
-        <v>0.648351</v>
+        <v>0.626373</v>
       </c>
       <c r="Y20">
-        <v>4.10989</v>
+        <v>3.406593</v>
       </c>
       <c r="Z20">
-        <v>3.725274</v>
+        <v>3.538461</v>
       </c>
       <c r="AA20">
-        <v>0.54945</v>
+        <v>0.571428</v>
       </c>
       <c r="AB20">
-        <v>3.901098</v>
+        <v>3.813186</v>
       </c>
       <c r="AC20">
-        <v>11.230769</v>
+        <v>11</v>
       </c>
       <c r="AD20">
-        <v>2.604395</v>
+        <v>2.538461</v>
       </c>
       <c r="AE20">
-        <v>2.351648</v>
+        <v>2.32967</v>
       </c>
       <c r="AF20">
-        <v>10.351648</v>
+        <v>10.428571</v>
       </c>
       <c r="AG20">
-        <v>12.021978</v>
+        <v>12.131868</v>
       </c>
       <c r="AH20">
-        <v>1.010989</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>2.098901</v>
+        <v>2.087912</v>
       </c>
       <c r="AJ20">
-        <v>6.252747</v>
+        <v>6.186813</v>
       </c>
       <c r="AK20">
-        <v>66.70329599999999</v>
+        <v>65.747252</v>
       </c>
       <c r="AL20">
-        <v>15.483516</v>
+        <v>14.813186</v>
       </c>
       <c r="AM20">
-        <v>2.824175</v>
+        <v>2.791208</v>
       </c>
       <c r="AN20">
-        <v>31.912087</v>
+        <v>31.868131</v>
       </c>
       <c r="AO20">
-        <v>1.054945</v>
+        <v>1.120879</v>
       </c>
       <c r="AP20">
-        <v>5.604395</v>
+        <v>5.318681</v>
       </c>
       <c r="AQ20">
-        <v>2.065934</v>
+        <v>1.934065</v>
       </c>
       <c r="AR20">
-        <v>1.417582</v>
+        <v>1.76923</v>
       </c>
       <c r="AS20">
-        <v>4.307692</v>
+        <v>4.505494</v>
       </c>
       <c r="AT20">
-        <v>2.395604</v>
+        <v>2.406593</v>
       </c>
       <c r="AU20">
-        <v>0.65934</v>
+        <v>0.703296</v>
       </c>
       <c r="AV20">
-        <v>5.945054</v>
+        <v>5.912087</v>
       </c>
       <c r="AW20">
-        <v>1.032967</v>
+        <v>0.967032</v>
       </c>
       <c r="AX20">
-        <v>6.725274</v>
+        <v>6.802197</v>
       </c>
       <c r="AY20">
-        <v>3.186813</v>
+        <v>3.153846</v>
       </c>
       <c r="AZ20">
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>85465</v>
+        <v>84794</v>
       </c>
       <c r="BB20">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="BC20">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="BD20">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="BE20">
         <v>857</v>
       </c>
       <c r="BF20">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="BG20">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="BH20">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="BI20">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="BJ20">
-        <v>1009</v>
+        <v>943</v>
       </c>
       <c r="BK20">
         <v>511</v>
       </c>
       <c r="BL20">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="BM20">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="BN20">
-        <v>1360</v>
+        <v>1330</v>
       </c>
       <c r="BO20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BP20">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="BQ20">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="BR20">
-        <v>52508</v>
+        <v>52324</v>
       </c>
       <c r="BS20">
-        <v>5123</v>
+        <v>5085</v>
       </c>
       <c r="BT20">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="BU20">
-        <v>4351</v>
+        <v>4207</v>
       </c>
       <c r="BV20">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="BW20">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="BX20">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="BY20">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="BZ20">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="CA20">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="CB20">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="CC20">
         <v>1544</v>
       </c>
       <c r="CD20">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="CE20">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="CF20">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="CG20">
-        <v>2603</v>
+        <v>3213</v>
       </c>
       <c r="CH20">
-        <v>614880</v>
+        <v>758974</v>
       </c>
       <c r="CI20" t="s">
         <v>166</v>
       </c>
       <c r="CJ20">
-        <v>50787.3</v>
+        <v>22677.12</v>
       </c>
       <c r="CK20">
-        <v>50787.3</v>
+        <v>22677.12</v>
       </c>
       <c r="CL20">
         <v>0</v>
@@ -6362,13 +6362,13 @@
         <v>197</v>
       </c>
       <c r="I21">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0.274725</v>
       </c>
       <c r="V21">
-        <v>-0.021978</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>0.263736</v>
+        <v>0.252747</v>
       </c>
       <c r="AL21">
         <v>0.450549</v>
@@ -6590,10 +6590,10 @@
         <v>158</v>
       </c>
       <c r="CG21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CH21">
-        <v>796</v>
+        <v>1326</v>
       </c>
       <c r="CI21" t="s">
         <v>167</v>
@@ -6625,37 +6625,37 @@
         <v>142</v>
       </c>
       <c r="F22">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>959</v>
       </c>
       <c r="I22">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="J22">
-        <v>402</v>
+        <v>614</v>
       </c>
       <c r="K22">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="N22">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O22">
-        <v>557</v>
+        <v>345</v>
       </c>
       <c r="P22">
-        <v>4666</v>
+        <v>4378</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -6673,40 +6673,40 @@
         <v>0.07692300000000001</v>
       </c>
       <c r="V22">
-        <v>0.505494</v>
+        <v>0.483516</v>
       </c>
       <c r="W22">
-        <v>1.472527</v>
+        <v>1.340659</v>
       </c>
       <c r="X22">
         <v>0.131868</v>
       </c>
       <c r="Y22">
-        <v>0.483516</v>
+        <v>0.472527</v>
       </c>
       <c r="Z22">
-        <v>2.043956</v>
+        <v>2.032967</v>
       </c>
       <c r="AA22">
-        <v>0.087912</v>
+        <v>0.07692300000000001</v>
       </c>
       <c r="AB22">
-        <v>0.164835</v>
+        <v>0.175824</v>
       </c>
       <c r="AC22">
-        <v>0.813186</v>
+        <v>0.890109</v>
       </c>
       <c r="AD22">
         <v>0.395604</v>
       </c>
       <c r="AE22">
-        <v>0.230769</v>
+        <v>0.252747</v>
       </c>
       <c r="AF22">
-        <v>4.912087</v>
+        <v>4.945054</v>
       </c>
       <c r="AG22">
-        <v>3.890109</v>
+        <v>4.098901</v>
       </c>
       <c r="AH22">
         <v>0.043956</v>
@@ -6715,22 +6715,22 @@
         <v>0.021978</v>
       </c>
       <c r="AJ22">
-        <v>1.527472</v>
+        <v>1.593406</v>
       </c>
       <c r="AK22">
-        <v>5.120879</v>
+        <v>5.296703</v>
       </c>
       <c r="AL22">
-        <v>4.912087</v>
+        <v>6</v>
       </c>
       <c r="AM22">
-        <v>0.7142849999999999</v>
+        <v>0.637362</v>
       </c>
       <c r="AN22">
-        <v>1.274725</v>
+        <v>1.296703</v>
       </c>
       <c r="AO22">
-        <v>1.967032</v>
+        <v>1.956043</v>
       </c>
       <c r="AP22">
         <v>0.142857</v>
@@ -6739,43 +6739,43 @@
         <v>0.912087</v>
       </c>
       <c r="AR22">
-        <v>2.527472</v>
+        <v>2.516483</v>
       </c>
       <c r="AS22">
         <v>0.07692300000000001</v>
       </c>
       <c r="AT22">
-        <v>0.351648</v>
+        <v>0.428571</v>
       </c>
       <c r="AU22">
-        <v>1.098901</v>
+        <v>1.131868</v>
       </c>
       <c r="AV22">
-        <v>0.142857</v>
+        <v>0.098901</v>
       </c>
       <c r="AW22">
-        <v>0.703296</v>
+        <v>0.373626</v>
       </c>
       <c r="AX22">
         <v>0.054945</v>
       </c>
       <c r="AY22">
-        <v>0.76923</v>
+        <v>0.780219</v>
       </c>
       <c r="AZ22">
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>4666</v>
+        <v>4378</v>
       </c>
       <c r="BB22">
         <v>143</v>
       </c>
       <c r="BC22">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BD22">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="BE22">
         <v>202</v>
@@ -6790,22 +6790,22 @@
         <v>163</v>
       </c>
       <c r="BI22">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BJ22">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="BK22">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BL22">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="BM22">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="BN22">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="BO22">
         <v>65</v>
@@ -6814,40 +6814,40 @@
         <v>143</v>
       </c>
       <c r="BQ22">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="BR22">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="BS22">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="BT22">
         <v>107</v>
       </c>
       <c r="BU22">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BV22">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="BW22">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BX22">
         <v>152</v>
       </c>
       <c r="BY22">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BZ22">
         <v>166</v>
       </c>
       <c r="CA22">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="CB22">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CC22">
         <v>93</v>
@@ -6859,22 +6859,22 @@
         <v>106</v>
       </c>
       <c r="CF22">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="CG22">
-        <v>414</v>
+        <v>723</v>
       </c>
       <c r="CH22">
-        <v>27932</v>
+        <v>48780</v>
       </c>
       <c r="CI22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CJ22">
-        <v>5937.36</v>
+        <v>809.64</v>
       </c>
       <c r="CK22">
-        <v>5937.36</v>
+        <v>809.64</v>
       </c>
       <c r="CL22">
         <v>0</v>
@@ -6897,37 +6897,37 @@
         <v>141</v>
       </c>
       <c r="F23">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>946</v>
       </c>
       <c r="I23">
-        <v>427</v>
+        <v>549</v>
       </c>
       <c r="J23">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="K23">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="N23">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O23">
-        <v>750</v>
+        <v>681</v>
       </c>
       <c r="P23">
-        <v>4096</v>
+        <v>4019</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -6942,43 +6942,43 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0.087912</v>
+        <v>0.10989</v>
       </c>
       <c r="V23">
-        <v>2.120879</v>
+        <v>2.087912</v>
       </c>
       <c r="W23">
-        <v>0.780219</v>
+        <v>0.615384</v>
       </c>
       <c r="X23">
-        <v>0.615384</v>
+        <v>0.06593400000000001</v>
       </c>
       <c r="Y23">
-        <v>0.186813</v>
+        <v>0.175824</v>
       </c>
       <c r="Z23">
-        <v>1.098901</v>
+        <v>1.021978</v>
       </c>
       <c r="AA23">
         <v>0.725274</v>
       </c>
       <c r="AB23">
-        <v>0.285714</v>
+        <v>0.274725</v>
       </c>
       <c r="AC23">
-        <v>0.296703</v>
+        <v>0.307692</v>
       </c>
       <c r="AD23">
         <v>0.263736</v>
       </c>
       <c r="AE23">
-        <v>1.296703</v>
+        <v>1.318681</v>
       </c>
       <c r="AF23">
-        <v>1.648351</v>
+        <v>1.670329</v>
       </c>
       <c r="AG23">
-        <v>3.626373</v>
+        <v>3.615384</v>
       </c>
       <c r="AH23">
         <v>0.351648</v>
@@ -6990,16 +6990,16 @@
         <v>0.791208</v>
       </c>
       <c r="AK23">
-        <v>0.76923</v>
+        <v>0.791208</v>
       </c>
       <c r="AL23">
-        <v>0.505494</v>
+        <v>0.461538</v>
       </c>
       <c r="AM23">
-        <v>0.747252</v>
+        <v>0.65934</v>
       </c>
       <c r="AN23">
-        <v>0.978021</v>
+        <v>0.912087</v>
       </c>
       <c r="AO23">
         <v>0.10989</v>
@@ -7011,22 +7011,22 @@
         <v>0.230769</v>
       </c>
       <c r="AR23">
-        <v>0.10989</v>
+        <v>0.120879</v>
       </c>
       <c r="AS23">
-        <v>0.395604</v>
+        <v>0.670329</v>
       </c>
       <c r="AT23">
         <v>0.395604</v>
       </c>
       <c r="AU23">
-        <v>1.065934</v>
+        <v>1.098901</v>
       </c>
       <c r="AV23">
-        <v>0.483516</v>
+        <v>0.54945</v>
       </c>
       <c r="AW23">
-        <v>0.736263</v>
+        <v>0.406593</v>
       </c>
       <c r="AX23">
         <v>0.06593400000000001</v>
@@ -7038,16 +7038,16 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>4096</v>
+        <v>4019</v>
       </c>
       <c r="BB23">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BC23">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="BD23">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BE23">
         <v>159</v>
@@ -7065,16 +7065,16 @@
         <v>30</v>
       </c>
       <c r="BJ23">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BK23">
         <v>182</v>
       </c>
       <c r="BL23">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="BM23">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="BN23">
         <v>301</v>
@@ -7086,10 +7086,10 @@
         <v>80</v>
       </c>
       <c r="BQ23">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BR23">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="BS23">
         <v>87</v>
@@ -7098,13 +7098,13 @@
         <v>84</v>
       </c>
       <c r="BU23">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="BV23">
         <v>188</v>
       </c>
       <c r="BW23">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="BX23">
         <v>174</v>
@@ -7119,34 +7119,34 @@
         <v>181</v>
       </c>
       <c r="CB23">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CC23">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="CD23">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="CE23">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="CF23">
         <v>170</v>
       </c>
       <c r="CG23">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="CH23">
-        <v>15741</v>
+        <v>21288</v>
       </c>
       <c r="CI23" t="s">
         <v>158</v>
       </c>
       <c r="CJ23">
-        <v>2473.68</v>
+        <v>1874</v>
       </c>
       <c r="CK23">
-        <v>2473.68</v>
+        <v>1874</v>
       </c>
       <c r="CL23">
         <v>0</v>
@@ -7169,37 +7169,37 @@
         <v>141</v>
       </c>
       <c r="F24">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24">
         <v>3822</v>
       </c>
       <c r="I24">
-        <v>1726</v>
+        <v>2219</v>
       </c>
       <c r="J24">
-        <v>1899</v>
+        <v>2388</v>
       </c>
       <c r="K24">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M24">
-        <v>5131</v>
+        <v>5152</v>
       </c>
       <c r="N24">
         <v>134</v>
       </c>
       <c r="O24">
-        <v>1923</v>
+        <v>1434</v>
       </c>
       <c r="P24">
-        <v>21853</v>
+        <v>21256</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -7214,211 +7214,211 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>2.428571</v>
+        <v>2.450549</v>
       </c>
       <c r="V24">
-        <v>9.076923000000001</v>
+        <v>9.131868000000001</v>
       </c>
       <c r="W24">
-        <v>4.483516</v>
+        <v>4.318681</v>
       </c>
       <c r="X24">
-        <v>6.54945</v>
+        <v>6.494505</v>
       </c>
       <c r="Y24">
-        <v>5.285714</v>
+        <v>6.901098</v>
       </c>
       <c r="Z24">
-        <v>6.483516</v>
+        <v>6.560439</v>
       </c>
       <c r="AA24">
-        <v>6.725274</v>
+        <v>6.615384</v>
       </c>
       <c r="AB24">
-        <v>2.472527</v>
+        <v>2.450549</v>
       </c>
       <c r="AC24">
-        <v>4.406593</v>
+        <v>4.373626</v>
       </c>
       <c r="AD24">
-        <v>1.87912</v>
+        <v>1.923076</v>
       </c>
       <c r="AE24">
-        <v>3.373626</v>
+        <v>3.351648</v>
       </c>
       <c r="AF24">
-        <v>7.703296</v>
+        <v>7.868131</v>
       </c>
       <c r="AG24">
-        <v>9.065934</v>
+        <v>9.186813000000001</v>
       </c>
       <c r="AH24">
-        <v>3.098901</v>
+        <v>3.043956</v>
       </c>
       <c r="AI24">
-        <v>1.208791</v>
+        <v>1.186813</v>
       </c>
       <c r="AJ24">
-        <v>6.626373</v>
+        <v>6.637362</v>
       </c>
       <c r="AK24">
-        <v>9.318681</v>
+        <v>9.307691999999999</v>
       </c>
       <c r="AL24">
-        <v>6.450549</v>
+        <v>6.417582</v>
       </c>
       <c r="AM24">
-        <v>4.934065</v>
+        <v>4.923076</v>
       </c>
       <c r="AN24">
-        <v>7.285714</v>
+        <v>7.274725</v>
       </c>
       <c r="AO24">
-        <v>2.395604</v>
+        <v>2.351648</v>
       </c>
       <c r="AP24">
-        <v>4.934065</v>
+        <v>4.780219</v>
       </c>
       <c r="AQ24">
-        <v>5.901098</v>
+        <v>5.670329</v>
       </c>
       <c r="AR24">
-        <v>6.087912</v>
+        <v>6.076923</v>
       </c>
       <c r="AS24">
-        <v>3.736263</v>
+        <v>3.945054</v>
       </c>
       <c r="AT24">
+        <v>7.725274</v>
+      </c>
+      <c r="AU24">
+        <v>2.571428</v>
+      </c>
+      <c r="AV24">
+        <v>9.417581999999999</v>
+      </c>
+      <c r="AW24">
         <v>7.934065</v>
-      </c>
-      <c r="AU24">
-        <v>2.703296</v>
-      </c>
-      <c r="AV24">
-        <v>9.362636999999999</v>
-      </c>
-      <c r="AW24">
-        <v>8.351648000000001</v>
       </c>
       <c r="AX24">
         <v>1.54945</v>
       </c>
       <c r="AY24">
-        <v>3.714285</v>
+        <v>3.76923</v>
       </c>
       <c r="AZ24">
-        <v>2448</v>
+        <v>2256</v>
       </c>
       <c r="BA24">
-        <v>19405</v>
+        <v>19000</v>
       </c>
       <c r="BB24">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="BC24">
-        <v>740</v>
+        <v>851</v>
       </c>
       <c r="BD24">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="BE24">
         <v>269</v>
       </c>
       <c r="BF24">
-        <v>534</v>
+        <v>363</v>
       </c>
       <c r="BG24">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="BH24">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="BI24">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="BJ24">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="BK24">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="BL24">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BM24">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="BN24">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="BO24">
         <v>408</v>
       </c>
       <c r="BP24">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BQ24">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="BR24">
-        <v>5514</v>
+        <v>5309</v>
       </c>
       <c r="BS24">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="BT24">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="BU24">
-        <v>1928</v>
+        <v>1913</v>
       </c>
       <c r="BV24">
         <v>305</v>
       </c>
       <c r="BW24">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="BX24">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="BY24">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="BZ24">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="CA24">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="CB24">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="CC24">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="CD24">
-        <v>382</v>
+        <v>584</v>
       </c>
       <c r="CE24">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="CF24">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="CG24">
-        <v>1955</v>
+        <v>2613</v>
       </c>
       <c r="CH24">
-        <v>205177</v>
+        <v>274234</v>
       </c>
       <c r="CI24" t="s">
         <v>168</v>
       </c>
       <c r="CJ24">
-        <v>21934.55</v>
+        <v>4512.85</v>
       </c>
       <c r="CK24">
-        <v>21934.55</v>
+        <v>4512.85</v>
       </c>
       <c r="CL24">
         <v>0</v>
@@ -7441,37 +7441,37 @@
         <v>148</v>
       </c>
       <c r="F25">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="G25">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H25">
         <v>1895</v>
       </c>
       <c r="I25">
-        <v>855</v>
+        <v>1100</v>
       </c>
       <c r="J25">
-        <v>788</v>
+        <v>1054</v>
       </c>
       <c r="K25">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>2255</v>
+        <v>2271</v>
       </c>
       <c r="N25">
         <v>119</v>
       </c>
       <c r="O25">
-        <v>1107</v>
+        <v>841</v>
       </c>
       <c r="P25">
-        <v>3828</v>
+        <v>3535</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -7486,211 +7486,211 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0.791208</v>
+        <v>0.802197</v>
       </c>
       <c r="V25">
-        <v>1.450549</v>
+        <v>1.483516</v>
       </c>
       <c r="W25">
-        <v>2.065934</v>
+        <v>2.054945</v>
       </c>
       <c r="X25">
-        <v>5.318681</v>
+        <v>5.043956</v>
       </c>
       <c r="Y25">
-        <v>0.362637</v>
+        <v>0.340659</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>1.010989</v>
       </c>
       <c r="AA25">
-        <v>1.010989</v>
+        <v>0.9890099999999999</v>
       </c>
       <c r="AB25">
-        <v>1.318681</v>
+        <v>1.307692</v>
       </c>
       <c r="AC25">
-        <v>0.285714</v>
+        <v>0.318681</v>
       </c>
       <c r="AD25">
-        <v>2.186813</v>
+        <v>2.604395</v>
       </c>
       <c r="AE25">
-        <v>0.934065</v>
+        <v>0.9450539999999999</v>
       </c>
       <c r="AF25">
-        <v>0.9450539999999999</v>
+        <v>0.912087</v>
       </c>
       <c r="AG25">
-        <v>3.626373</v>
+        <v>3.472527</v>
       </c>
       <c r="AH25">
-        <v>0.703296</v>
+        <v>0.692307</v>
       </c>
       <c r="AI25">
-        <v>0.43956</v>
+        <v>0.417582</v>
       </c>
       <c r="AJ25">
-        <v>2.813186</v>
+        <v>2.76923</v>
       </c>
       <c r="AK25">
-        <v>7.450549</v>
+        <v>7.835164</v>
       </c>
       <c r="AL25">
-        <v>4.76923</v>
+        <v>4.780219</v>
       </c>
       <c r="AM25">
-        <v>1.76923</v>
+        <v>1.802197</v>
       </c>
       <c r="AN25">
-        <v>2.087912</v>
+        <v>2.076923</v>
       </c>
       <c r="AO25">
-        <v>4.791208</v>
+        <v>4.758241</v>
       </c>
       <c r="AP25">
-        <v>2.43956</v>
+        <v>2.32967</v>
       </c>
       <c r="AQ25">
-        <v>3.241758</v>
+        <v>3.263736</v>
       </c>
       <c r="AR25">
         <v>1.131868</v>
       </c>
       <c r="AS25">
-        <v>1.582417</v>
+        <v>1.670329</v>
       </c>
       <c r="AT25">
-        <v>8.703296</v>
+        <v>8.857142</v>
       </c>
       <c r="AU25">
-        <v>1.813186</v>
+        <v>1.846153</v>
       </c>
       <c r="AV25">
-        <v>1.912087</v>
+        <v>1.934065</v>
       </c>
       <c r="AW25">
-        <v>3.472527</v>
+        <v>3.494505</v>
       </c>
       <c r="AX25">
         <v>0.197802</v>
       </c>
       <c r="AY25">
-        <v>2.153846</v>
+        <v>2.142857</v>
       </c>
       <c r="AZ25">
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>3828</v>
+        <v>3535</v>
       </c>
       <c r="BB25">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="BC25">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BD25">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BE25">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="BF25">
         <v>61</v>
       </c>
       <c r="BG25">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BH25">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BI25">
         <v>110</v>
       </c>
       <c r="BJ25">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BK25">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="BL25">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BM25">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="BN25">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BO25">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BP25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="BQ25">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BR25">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="BS25">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="BT25">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="BU25">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BV25">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="BW25">
         <v>133</v>
       </c>
       <c r="BX25">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="BY25">
         <v>87</v>
       </c>
       <c r="BZ25">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="CA25">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="CB25">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="CC25">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CD25">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="CE25">
         <v>27</v>
       </c>
       <c r="CF25">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="CG25">
-        <v>749</v>
+        <v>1021</v>
       </c>
       <c r="CH25">
-        <v>168442</v>
+        <v>229612</v>
       </c>
       <c r="CI25" t="s">
         <v>169</v>
       </c>
       <c r="CJ25">
-        <v>20240.1</v>
+        <v>13043.62</v>
       </c>
       <c r="CK25">
-        <v>20240.1</v>
+        <v>13043.62</v>
       </c>
       <c r="CL25">
         <v>0</v>
@@ -8257,7 +8257,7 @@
         <v>142</v>
       </c>
       <c r="F28">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <v>38</v>
@@ -8266,28 +8266,28 @@
         <v>960</v>
       </c>
       <c r="I28">
-        <v>433</v>
+        <v>557</v>
       </c>
       <c r="J28">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="K28">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M28">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="N28">
         <v>125</v>
       </c>
       <c r="O28">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="P28">
-        <v>12184</v>
+        <v>11987</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -8302,10 +8302,10 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0.131868</v>
+        <v>0.142857</v>
       </c>
       <c r="V28">
-        <v>0.417582</v>
+        <v>0.406593</v>
       </c>
       <c r="W28">
         <v>0.10989</v>
@@ -8314,43 +8314,43 @@
         <v>0.670329</v>
       </c>
       <c r="Y28">
-        <v>0.9890099999999999</v>
+        <v>0.978021</v>
       </c>
       <c r="Z28">
-        <v>3.142857</v>
+        <v>3.043956</v>
       </c>
       <c r="AA28">
-        <v>0.384615</v>
+        <v>0.505494</v>
       </c>
       <c r="AB28">
-        <v>0.153846</v>
+        <v>0.142857</v>
       </c>
       <c r="AC28">
-        <v>0.648351</v>
+        <v>0.703296</v>
       </c>
       <c r="AD28">
-        <v>0.054945</v>
+        <v>0.032967</v>
       </c>
       <c r="AE28">
-        <v>1.241758</v>
+        <v>1.296703</v>
       </c>
       <c r="AF28">
         <v>2.494505</v>
       </c>
       <c r="AG28">
-        <v>0.5274720000000001</v>
+        <v>0.516483</v>
       </c>
       <c r="AH28">
-        <v>0.318681</v>
+        <v>0.340659</v>
       </c>
       <c r="AI28">
         <v>0.032967</v>
       </c>
       <c r="AJ28">
-        <v>1.054945</v>
+        <v>1.10989</v>
       </c>
       <c r="AK28">
-        <v>7.241758</v>
+        <v>7.164835</v>
       </c>
       <c r="AL28">
         <v>2.164835</v>
@@ -8359,37 +8359,37 @@
         <v>1.21978</v>
       </c>
       <c r="AN28">
-        <v>8.10989</v>
+        <v>7.945054</v>
       </c>
       <c r="AO28">
-        <v>2.626373</v>
+        <v>2.802197</v>
       </c>
       <c r="AP28">
-        <v>1.076923</v>
+        <v>1.054945</v>
       </c>
       <c r="AQ28">
-        <v>0.846153</v>
+        <v>0.76923</v>
       </c>
       <c r="AR28">
-        <v>0.175824</v>
+        <v>0.164835</v>
       </c>
       <c r="AS28">
-        <v>1.406593</v>
+        <v>1.340659</v>
       </c>
       <c r="AT28">
-        <v>0.802197</v>
+        <v>0.76923</v>
       </c>
       <c r="AU28">
         <v>0.054945</v>
       </c>
       <c r="AV28">
-        <v>0.06593400000000001</v>
+        <v>0.054945</v>
       </c>
       <c r="AW28">
-        <v>0.571428</v>
+        <v>0.560439</v>
       </c>
       <c r="AX28">
-        <v>0.120879</v>
+        <v>0.164835</v>
       </c>
       <c r="AY28">
         <v>0.010989</v>
@@ -8398,13 +8398,13 @@
         <v>2400</v>
       </c>
       <c r="BA28">
-        <v>9784</v>
+        <v>9587</v>
       </c>
       <c r="BB28">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC28">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BD28">
         <v>181</v>
@@ -8416,55 +8416,55 @@
         <v>112</v>
       </c>
       <c r="BG28">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="BH28">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="BI28">
         <v>236</v>
       </c>
       <c r="BJ28">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="BK28">
         <v>205</v>
       </c>
       <c r="BL28">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="BM28">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="BN28">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="BO28">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BP28">
         <v>365</v>
       </c>
       <c r="BQ28">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BR28">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BS28">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="BT28">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BU28">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BV28">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="BW28">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BX28">
         <v>135</v>
@@ -8473,10 +8473,10 @@
         <v>208</v>
       </c>
       <c r="BZ28">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="CA28">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="CB28">
         <v>294</v>
@@ -8485,28 +8485,28 @@
         <v>329</v>
       </c>
       <c r="CD28">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="CE28">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="CF28">
         <v>210</v>
       </c>
       <c r="CG28">
-        <v>653</v>
+        <v>746</v>
       </c>
       <c r="CH28">
-        <v>61186</v>
+        <v>69900</v>
       </c>
       <c r="CI28" t="s">
         <v>172</v>
       </c>
       <c r="CJ28">
-        <v>11712.5</v>
+        <v>1218.1</v>
       </c>
       <c r="CK28">
-        <v>11712.5</v>
+        <v>1218.1</v>
       </c>
       <c r="CL28">
         <v>0</v>
